--- a/xlsxmaps/level_0007.xlsx
+++ b/xlsxmaps/level_0007.xlsx
@@ -39,7 +39,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,14 +64,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -184,103 +178,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -320,40 +224,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -378,9 +249,6 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1764,9 +1632,7 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1801,22 +1667,22 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="4">
         <v>81014000</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="5">
         <v>71001000</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="5">
         <v>71015000</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="5">
         <v>71001000</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="5">
         <v>81014000</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1824,22 +1690,22 @@
       <c r="A3" s="6">
         <v>81001000</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="7">
         <v>81001000</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="8">
         <v>61014000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="8">
         <v>51001000</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="8">
         <v>61014000</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="8">
         <v>81001000</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="8">
         <v>81001000</v>
       </c>
     </row>
@@ -1847,22 +1713,22 @@
       <c r="A4" s="6">
         <v>81014000</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="7">
         <v>81016000</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="8">
         <v>61001000</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="8">
         <v>51000000</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="8">
         <v>61001000</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="8">
         <v>81016000</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="8">
         <v>81014000</v>
       </c>
     </row>
@@ -1870,22 +1736,22 @@
       <c r="A5" s="6">
         <v>81001000</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <v>81001000</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="8">
         <v>61014000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="8">
         <v>51001000</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="8">
         <v>61014000</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="8">
         <v>81001000</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="8">
         <v>81001000</v>
       </c>
     </row>
@@ -1893,22 +1759,22 @@
       <c r="A6" s="6">
         <v>0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="7">
         <v>81014000</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="8">
         <v>71001000</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="8">
         <v>71015000</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="8">
         <v>71001000</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="8">
         <v>81014000</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1916,47 +1782,51 @@
       <c r="A7" s="6">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <v>81014000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="8">
         <v>81001000</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="8">
         <v>81014000</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/xlsxmaps/level_0007.xlsx
+++ b/xlsxmaps/level_0007.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E79755-C641-45EB-8AD7-1DBB44BB7188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B829A8-0F2D-421D-9AA8-75629579EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表 1-1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="工作表 1 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="工作表 1 (3)" sheetId="8" r:id="rId4"/>
+    <sheet name="工作表 1 (4)" sheetId="9" r:id="rId5"/>
+    <sheet name="工作表 1 (5)" sheetId="10" r:id="rId6"/>
+    <sheet name="工作表 1 (6)" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -44,7 +46,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,12 +56,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -183,7 +179,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -206,9 +202,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,24 +1372,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
         <v>0</v>
       </c>
       <c r="D1" s="4">
@@ -1417,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>11001000</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
+        <v>10000000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10000000</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>11001000</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1440,58 +1434,58 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
+        <v>11001000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11001000</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>11001000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>11001000</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="4">
@@ -1505,22 +1499,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11001000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
@@ -1528,11 +1522,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2">
-        <v>11001000</v>
+      <c r="A7" s="4">
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>11001000</v>
@@ -1543,7 +1537,7 @@
       <c r="E7" s="2">
         <v>11001000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -1565,23 +1559,24 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="16.28515625" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="10"/>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
         <v>0</v>
       </c>
       <c r="D1" s="4">
@@ -1607,13 +1602,13 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="2">
@@ -1625,18 +1620,18 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>11001000</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="2">
@@ -1644,22 +1639,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="4">
@@ -1667,16 +1662,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="4">
@@ -1690,22 +1685,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
@@ -1713,22 +1708,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2">
-        <v>11001000</v>
+      <c r="A7" s="4">
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>10000000</v>
       </c>
       <c r="D7" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -1746,23 +1741,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B01C25B-6D26-4E45-9305-000CAA78974F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314C67-0870-4585-83DF-661C565A723A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
         <v>0</v>
       </c>
       <c r="D1" s="4">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1788,10 +1788,10 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
@@ -1801,43 +1801,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
+      <c r="B3" s="5">
+        <v>20000000</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20000000</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="4">
@@ -1847,17 +1847,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="4">
@@ -1870,46 +1870,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -1918,31 +1918,37 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B21187-3680-4D24-B505-7DD4FCDE3190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ACD881-4847-4F8D-9961-EA4B4D051898}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
         <v>0</v>
       </c>
       <c r="D1" s="4">
@@ -1958,14 +1964,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="4">
@@ -1974,21 +1980,21 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="4">
@@ -1997,44 +2003,44 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
+        <v>21001000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>21001000</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="4">
@@ -2050,20 +2056,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4">
@@ -2073,20 +2079,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="4">
@@ -2098,28 +2104,37 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7C142B-10E0-4753-8132-68C473AEA3A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
         <v>0</v>
       </c>
       <c r="D1" s="4">
@@ -2135,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2145,10 +2160,10 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
@@ -2158,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2168,10 +2183,10 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
@@ -2181,40 +2196,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D5" s="4">
+        <v>20000000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>21001000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>21001000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="4">
@@ -2227,46 +2242,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -2275,6 +2290,382 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2980BD10-47D0-495A-844F-D82596BB549E}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>21001000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>21001000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1670D49A-6160-43DB-A3AB-76A6B2F2DD14}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/xlsxmaps/level_0007.xlsx
+++ b/xlsxmaps/level_0007.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B829A8-0F2D-421D-9AA8-75629579EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB59820-88AA-4EFA-9A49-44BAC23F9154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表 1-1" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表 1 (2)" sheetId="6" r:id="rId3"/>
-    <sheet name="工作表 1 (3)" sheetId="8" r:id="rId4"/>
-    <sheet name="工作表 1 (4)" sheetId="9" r:id="rId5"/>
-    <sheet name="工作表 1 (5)" sheetId="10" r:id="rId6"/>
-    <sheet name="工作表 1 (6)" sheetId="11" r:id="rId7"/>
+    <sheet name="工作表 1 (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="工作表 1 (3)" sheetId="8" r:id="rId2"/>
+    <sheet name="工作表 1 (4)" sheetId="9" r:id="rId3"/>
+    <sheet name="工作表 1 (5)" sheetId="10" r:id="rId4"/>
+    <sheet name="工作表 1 (6)" sheetId="11" r:id="rId5"/>
+    <sheet name="工作表 1 (7)" sheetId="12" r:id="rId6"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId7"/>
+    <sheet name="工作表 1-1" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1369,11 +1370,1127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314C67-0870-4585-83DF-661C565A723A}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ACD881-4847-4F8D-9961-EA4B4D051898}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5">
+        <v>31001000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>21001000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>31001000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>21001000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2980BD10-47D0-495A-844F-D82596BB549E}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>31001000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>21001000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1670D49A-6160-43DB-A3AB-76A6B2F2DD14}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA2945E-BF54-4B04-B197-61A0EB181C75}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1554,7 +2671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1738,934 +2855,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314C67-0870-4585-83DF-661C565A723A}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="9"/>
-    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ACD881-4847-4F8D-9961-EA4B4D051898}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="9"/>
-    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
-        <v>21001000</v>
-      </c>
-      <c r="B4" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F4" s="5">
-        <v>21001000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="9"/>
-    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="B4" s="5">
-        <v>21001000</v>
-      </c>
-      <c r="C4" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F4" s="5">
-        <v>21001000</v>
-      </c>
-      <c r="G4" s="5">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2980BD10-47D0-495A-844F-D82596BB549E}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="9"/>
-    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="B5" s="5">
-        <v>21001000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>21001000</v>
-      </c>
-      <c r="F5" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1670D49A-6160-43DB-A3AB-76A6B2F2DD14}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="9"/>
-    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/xlsxmaps/level_0007.xlsx
+++ b/xlsxmaps/level_0007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB59820-88AA-4EFA-9A49-44BAC23F9154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410EBD97-F2B6-4554-85C7-39F5A3FCEE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 (2)" sheetId="6" r:id="rId1"/>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314C67-0870-4585-83DF-661C565A723A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1384,23 +1384,23 @@
     <col min="9" max="16384" width="16.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
         <v>0</v>
       </c>
       <c r="G1" s="4">
@@ -1408,71 +1408,71 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
         <v>30000000</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
         <v>20000000</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1503,19 +1503,19 @@
       <c r="A6" s="4">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4">
@@ -1538,7 +1538,7 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1570,7 +1570,7 @@
     <col min="9" max="16384" width="16.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4">
         <v>0</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -1640,46 +1640,46 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="5">
         <v>31001000</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5">
         <v>30000000</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>20000000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <v>21001000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1756,23 +1756,23 @@
     <col min="9" max="16384" width="16.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
         <v>0</v>
       </c>
       <c r="G1" s="4">
@@ -1780,29 +1780,29 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1826,68 +1826,68 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="5">
         <v>30000000</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5">
         <v>31001000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <v>30000000</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>20000000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <v>21001000</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="5">
         <v>20000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4">
@@ -1910,7 +1910,7 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -1932,7 +1932,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1942,7 +1942,7 @@
     <col min="9" max="16384" width="16.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4">
         <v>0</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -2035,46 +2035,46 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="5">
         <v>30000000</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="5">
         <v>31001000</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>21001000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>20000000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2117,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1670D49A-6160-43DB-A3AB-76A6B2F2DD14}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2128,23 +2128,23 @@
     <col min="9" max="16384" width="16.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
         <v>0</v>
       </c>
       <c r="G1" s="4">
@@ -2152,29 +2152,29 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2198,25 +2198,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2224,20 +2224,20 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
-        <v>30000000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>20000000</v>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -2247,20 +2247,20 @@
       <c r="A6" s="4">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
+      <c r="B6" s="5">
+        <v>30000000</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
+      <c r="F6" s="5">
+        <v>20000000</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2282,7 +2282,7 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="4">

--- a/xlsxmaps/level_0007.xlsx
+++ b/xlsxmaps/level_0007.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410EBD97-F2B6-4554-85C7-39F5A3FCEE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157614C2-0992-4751-99C6-00970BF86FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1 (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="工作表 1 (3)" sheetId="8" r:id="rId2"/>
-    <sheet name="工作表 1 (4)" sheetId="9" r:id="rId3"/>
-    <sheet name="工作表 1 (5)" sheetId="10" r:id="rId4"/>
-    <sheet name="工作表 1 (6)" sheetId="11" r:id="rId5"/>
-    <sheet name="工作表 1 (7)" sheetId="12" r:id="rId6"/>
-    <sheet name="工作表 1" sheetId="1" r:id="rId7"/>
-    <sheet name="工作表 1-1" sheetId="2" r:id="rId8"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表 1-1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表 1 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="工作表 1 (3)" sheetId="8" r:id="rId4"/>
+    <sheet name="工作表 1 (4)" sheetId="9" r:id="rId5"/>
+    <sheet name="工作表 1 (5)" sheetId="10" r:id="rId6"/>
+    <sheet name="工作表 1 (6)" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1370,10 +1369,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>11001000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>11001000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11001000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="9"/>
+    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314C67-0870-4585-83DF-661C565A723A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1555,7 +1926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ACD881-4847-4F8D-9961-EA4B4D051898}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1741,7 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1927,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2980BD10-47D0-495A-844F-D82596BB549E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2113,12 +2484,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1670D49A-6160-43DB-A3AB-76A6B2F2DD14}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2297,562 +2668,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA2945E-BF54-4B04-B197-61A0EB181C75}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="9"/>
-    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="9"/>
-    <col min="2" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>11001000</v>
-      </c>
-      <c r="C4" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="F4" s="6">
-        <v>11001000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>11001000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="9"/>
-    <col min="2" max="8" width="16.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>11001000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>